--- a/Data/raw/pitcher/정성곤_1996-07-10.xlsx
+++ b/Data/raw/pitcher/정성곤_1996-07-10.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2016" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2017" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2018" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2019" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2016" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2017" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2018" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2019" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,22 +53,21 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -491,12 +489,12 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2타</t>
+          <t>이타</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>3타</t>
+          <t>삼타</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -4502,7 +4500,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -4573,12 +4571,12 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2타</t>
+          <t>이타</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>3타</t>
+          <t>삼타</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -8400,7 +8398,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -8471,12 +8469,12 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2타</t>
+          <t>이타</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>3타</t>
+          <t>삼타</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -11889,7 +11887,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -11960,12 +11958,12 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2타</t>
+          <t>이타</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>3타</t>
+          <t>삼타</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -12185,6 +12183,7 @@
           <t>0.082</t>
         </is>
       </c>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr">
         <is>
           <t>L</t>
@@ -12332,6 +12331,7 @@
           <t>HLD</t>
         </is>
       </c>
+      <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr">
         <is>
           <t>1일</t>
@@ -12469,6 +12469,8 @@
           <t>0.137</t>
         </is>
       </c>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr">
         <is>
           <t>2일</t>
@@ -12611,6 +12613,7 @@
           <t>HLD</t>
         </is>
       </c>
+      <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr">
         <is>
           <t>3일</t>
@@ -12748,6 +12751,8 @@
           <t>-0.060</t>
         </is>
       </c>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr">
         <is>
           <t>2일</t>
@@ -12890,6 +12895,7 @@
           <t>HLD</t>
         </is>
       </c>
+      <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr">
         <is>
           <t>6일</t>
@@ -13032,6 +13038,7 @@
           <t>HLD</t>
         </is>
       </c>
+      <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr">
         <is>
           <t>1일</t>
@@ -13174,6 +13181,7 @@
           <t>HLD</t>
         </is>
       </c>
+      <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr">
         <is>
           <t>6일</t>
@@ -13316,6 +13324,7 @@
           <t>HLD</t>
         </is>
       </c>
+      <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr">
         <is>
           <t>3일</t>
@@ -13458,6 +13467,7 @@
           <t>BLSV</t>
         </is>
       </c>
+      <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr">
         <is>
           <t>2일</t>
@@ -13595,6 +13605,7 @@
           <t>-0.145</t>
         </is>
       </c>
+      <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr">
         <is>
           <t>W</t>
@@ -13742,6 +13753,7 @@
           <t>HLD</t>
         </is>
       </c>
+      <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr">
         <is>
           <t>2일</t>
@@ -13879,6 +13891,8 @@
           <t>0.013</t>
         </is>
       </c>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr">
         <is>
           <t>3일</t>
@@ -14016,6 +14030,8 @@
           <t>0.038</t>
         </is>
       </c>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr">
         <is>
           <t>1일</t>
@@ -14153,6 +14169,8 @@
           <t>0.077</t>
         </is>
       </c>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr">
         <is>
           <t>3일</t>
@@ -14584,6 +14602,7 @@
           <t>0.162</t>
         </is>
       </c>
+      <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr">
         <is>
           <t>SV</t>
@@ -14726,6 +14745,7 @@
           <t>0.162</t>
         </is>
       </c>
+      <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="inlineStr">
         <is>
           <t>SV</t>
@@ -14868,6 +14888,7 @@
           <t>0.041</t>
         </is>
       </c>
+      <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr">
         <is>
           <t>SV</t>
@@ -15010,6 +15031,7 @@
           <t>0.041</t>
         </is>
       </c>
+      <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr">
         <is>
           <t>SV</t>
@@ -15152,6 +15174,7 @@
           <t>0.035</t>
         </is>
       </c>
+      <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr">
         <is>
           <t>SV</t>
@@ -15294,6 +15317,8 @@
           <t>0.006</t>
         </is>
       </c>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr">
         <is>
           <t>3일</t>
@@ -15431,6 +15456,7 @@
           <t>0.156</t>
         </is>
       </c>
+      <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="inlineStr">
         <is>
           <t>SV</t>
@@ -15573,6 +15599,8 @@
           <t>-0.001</t>
         </is>
       </c>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr">
         <is>
           <t>4일</t>
@@ -15710,6 +15738,7 @@
           <t>0.091</t>
         </is>
       </c>
+      <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr">
         <is>
           <t>SV</t>
@@ -15852,6 +15881,8 @@
           <t>-0.037</t>
         </is>
       </c>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr">
         <is>
           <t>7일</t>
@@ -16136,6 +16167,7 @@
           <t>0.035</t>
         </is>
       </c>
+      <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr">
         <is>
           <t>SV</t>
@@ -16278,6 +16310,8 @@
           <t>-0.115</t>
         </is>
       </c>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr">
         <is>
           <t>5일</t>
@@ -16415,6 +16449,8 @@
           <t>0.014</t>
         </is>
       </c>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr">
         <is>
           <t>6일</t>
@@ -16552,6 +16588,8 @@
           <t>-0.059</t>
         </is>
       </c>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr">
         <is>
           <t>2일</t>
@@ -16694,6 +16732,7 @@
           <t>HLD</t>
         </is>
       </c>
+      <c r="AB34" t="inlineStr"/>
       <c r="AC34" t="inlineStr">
         <is>
           <t>1일</t>
@@ -16831,6 +16870,8 @@
           <t>0.137</t>
         </is>
       </c>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="inlineStr">
         <is>
           <t>2일</t>
@@ -16973,6 +17014,7 @@
           <t>HLD</t>
         </is>
       </c>
+      <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="inlineStr">
         <is>
           <t>7+일</t>
@@ -17115,6 +17157,7 @@
           <t>HLD</t>
         </is>
       </c>
+      <c r="AB37" t="inlineStr"/>
       <c r="AC37" t="inlineStr">
         <is>
           <t>1일</t>
@@ -17257,6 +17300,7 @@
           <t>HLD</t>
         </is>
       </c>
+      <c r="AB38" t="inlineStr"/>
       <c r="AC38" t="inlineStr">
         <is>
           <t>2일</t>
@@ -17394,6 +17438,8 @@
           <t>0.043</t>
         </is>
       </c>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr">
         <is>
           <t>1일</t>
@@ -17531,6 +17577,8 @@
           <t>-0.026</t>
         </is>
       </c>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr">
         <is>
           <t>5일</t>
@@ -17668,6 +17716,8 @@
           <t>0.001</t>
         </is>
       </c>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="inlineStr">
         <is>
           <t>1일</t>
@@ -17805,6 +17855,8 @@
           <t>-0.081</t>
         </is>
       </c>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
       <c r="AC42" t="inlineStr">
         <is>
           <t>4일</t>
@@ -17942,6 +17994,8 @@
           <t>0.003</t>
         </is>
       </c>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr">
         <is>
           <t>7+일</t>
@@ -18079,6 +18133,7 @@
           <t>0.034</t>
         </is>
       </c>
+      <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="inlineStr">
         <is>
           <t>W</t>
@@ -18221,6 +18276,8 @@
           <t>-0.056</t>
         </is>
       </c>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr">
         <is>
           <t>1일</t>
@@ -18358,6 +18415,8 @@
           <t>0.001</t>
         </is>
       </c>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr">
         <is>
           <t>5일</t>
@@ -18495,6 +18554,8 @@
           <t>-0.040</t>
         </is>
       </c>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr">
         <is>
           <t>5일</t>
@@ -18632,6 +18693,8 @@
           <t>0.074</t>
         </is>
       </c>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr">
         <is>
           <t>2일</t>
@@ -18769,6 +18832,8 @@
           <t>-0.041</t>
         </is>
       </c>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
       <c r="AC49" t="inlineStr">
         <is>
           <t>1일</t>
@@ -18906,6 +18971,8 @@
           <t>0.003</t>
         </is>
       </c>
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr">
         <is>
           <t>7일</t>
@@ -19043,6 +19110,8 @@
           <t>0.002</t>
         </is>
       </c>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr"/>
       <c r="AC51" t="inlineStr">
         <is>
           <t>3일</t>
@@ -19180,6 +19249,8 @@
           <t>-0.012</t>
         </is>
       </c>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr"/>
       <c r="AC52" t="inlineStr">
         <is>
           <t>7+일</t>
@@ -19317,7514 +19388,6 @@
           <t>0.014</t>
         </is>
       </c>
-      <c r="AC53" t="inlineStr">
-        <is>
-          <t>7+일</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AC53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>날짜</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>상대</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>결과</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>선발</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>이닝</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>실점</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>자책</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>타자</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>타수</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>안타</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>2타</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>3타</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>홈런</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>볼넷</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>고4</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>사구</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>삼진</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>투구</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>WHIP</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>타율</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>출루율</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>OPS</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>ERA</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>avLI</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>RE24</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>WPA</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>GSC</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>DEC</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>간격</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>03-23</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>@SK</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>L 4:7</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>0.250</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0.250</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0.082</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>7+일</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>03-24</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>@SK</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>L 3:6</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0.108</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>HLD</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>1일</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03-26</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>@NC</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>L 8:9</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>0.250</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>0.250</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0.137</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>2일</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>03-29</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>KIA</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>W 6:3</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>0.063</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>0.143</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>0.286</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0.089</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>HLD</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>3일</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>03-31</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>KIA</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>L 2:4</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>0.095</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>0.200</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>0.400</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>-0.060</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>2일</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>04-06</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>LG</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>W 2:1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>0.185</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>0.571</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>1.571</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>-0.19</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0.007</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>HLD</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>6일</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>04-07</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>LG</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>W 4:3</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>0.167</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0.120</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>HLD</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>1일</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>04-13</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>@삼성</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>W 5:3</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.2</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>0.143</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>0.286</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>0.286</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0.127</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>HLD</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>6일</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>04-16</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>한화</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>W 4:2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>0.154</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>0.400</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>0.900</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>-0.43</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0.044</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>HLD</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>3일</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>04-18</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>한화</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>W 6:5</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>0.209</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>0.800</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>2.050</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>-2.42</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>-0.436</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>BLSV</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>2일</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>04-21</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>@롯데</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>W 6:3</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.2</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>0.204</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>0.444</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>0.611</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>-0.145</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>3일</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>04-23</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>NC</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>L 3:4</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>0.192</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0.096</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>HLD</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>2일</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>04-26</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>SK</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>L 0:2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>0.208</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>2.000</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>0.013</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>3일</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>04-27</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>SK</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>L 1:2</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>0.196</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0.038</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>1일</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>04-30</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>@LG</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>L 9:10</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2.2</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>0.212</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>0.417</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>0.717</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>0.077</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>3일</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>05-03</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>@한화</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>W 5:4</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1.2</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>0.211</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>0.333</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>0.533</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>-0.47</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>-0.049</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>BLSV</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>3일</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>05-04</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>@한화</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>L 9:10</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>0.247</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>0.667</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>1.500</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>-2.79</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>-0.909</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>BLSV</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>1일</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>05-08</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>롯데</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>W 5:4</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>0.238</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>0.162</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>SV</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>4일</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>05-10</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>키움</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>W 7:6</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>0.229</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>0.162</t>
-        </is>
-      </c>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>SV</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>2일</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>05-15</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>@KIA</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>W 7:4</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>0.221</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>0.041</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>SV</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>5일</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>05-16</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>@KIA</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>W 6:3</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>0.213</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>0.041</t>
-        </is>
-      </c>
-      <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>SV</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>1일</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>05-18</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>삼성</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>W 2:0</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>0.209</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>0.035</t>
-        </is>
-      </c>
-      <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>SV</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>2일</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>05-21</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>두산</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>W 12:7</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>0.202</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>0.006</t>
-        </is>
-      </c>
-      <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>3일</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>05-22</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>두산</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>W 3:1</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>1.2</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>0.202</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>0.200</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>0.600</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>0.156</t>
-        </is>
-      </c>
-      <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>SV</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>1일</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>05-26</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>@KIA</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>L 5:17</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>0.236</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>0.750</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>1.750</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>-5.56</t>
-        </is>
-      </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>-0.001</t>
-        </is>
-      </c>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>4일</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>05-29</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>@SK</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>W 8:6</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>0.229</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>0.091</t>
-        </is>
-      </c>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>SV</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>3일</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>06-05</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>@LG</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>L 2:9</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>0.246</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>0.600</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>1.400</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="Y28" t="inlineStr">
-        <is>
-          <t>-3.28</t>
-        </is>
-      </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>-0.037</t>
-        </is>
-      </c>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>06-06</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>@LG</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>L 7:8</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>0.261</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>0.667</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>2.067</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t>-2.77</t>
-        </is>
-      </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>-0.769</t>
-        </is>
-      </c>
-      <c r="AA29" t="inlineStr">
-        <is>
-          <t>BLSV</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>1일</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>06-09</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>롯데</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>W 2:0</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>0.256</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="Y30" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>0.035</t>
-        </is>
-      </c>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>SV</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>3일</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>06-14</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>@삼성</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>L 4:7</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>0.272</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>0.833</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>1.833</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>-3.10</t>
-        </is>
-      </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>-0.115</t>
-        </is>
-      </c>
-      <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>5일</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>06-20</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>@키움</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>L 1:3</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>0.271</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>0.250</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>0.500</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="X32" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>0.014</t>
-        </is>
-      </c>
-      <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>6일</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>06-22</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>NC</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>L 6:7</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>1.2</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>0.272</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>0.286</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>0.571</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="X33" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>-0.059</t>
-        </is>
-      </c>
-      <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>2일</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>06-23</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>NC</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>W 4:2</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>0.286</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>0.750</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>1.500</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>-1.10</t>
-        </is>
-      </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>-0.165</t>
-        </is>
-      </c>
-      <c r="AA34" t="inlineStr">
-        <is>
-          <t>HLD</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>1일</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>06-25</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>@롯데</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>D 8:8</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>0.137</t>
-        </is>
-      </c>
-      <c r="AA35" t="inlineStr"/>
-      <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>2일</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>07-03</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>삼성</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>W 3:0</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>0.274</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="X36" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>0.070</t>
-        </is>
-      </c>
-      <c r="AA36" t="inlineStr">
-        <is>
-          <t>HLD</t>
-        </is>
-      </c>
-      <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>7+일</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>07-04</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>삼성</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>W 5:3</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>0.273</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>0.250</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>0.500</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>0.074</t>
-        </is>
-      </c>
-      <c r="AA37" t="inlineStr">
-        <is>
-          <t>HLD</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>1일</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>07-06</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>@한화</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>L 8:9</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>0.281</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>0.667</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>2.000</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="X38" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="Y38" t="inlineStr">
-        <is>
-          <t>-0.91</t>
-        </is>
-      </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>-0.156</t>
-        </is>
-      </c>
-      <c r="AA38" t="inlineStr">
-        <is>
-          <t>HLD</t>
-        </is>
-      </c>
-      <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>2일</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>07-07</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>@한화</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>W 4:3</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>0.276</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="X39" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>0.043</t>
-        </is>
-      </c>
-      <c r="AA39" t="inlineStr"/>
-      <c r="AB39" t="inlineStr"/>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>1일</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>07-12</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>@NC</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>L 8:9</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>0.275</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>0.250</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>0.500</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="X40" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>-0.026</t>
-        </is>
-      </c>
-      <c r="AA40" t="inlineStr"/>
-      <c r="AB40" t="inlineStr"/>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>5일</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>07-13</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>@NC</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>W 13:3</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>0.274</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>0.250</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>1.250</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="X41" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="Y41" t="inlineStr">
-        <is>
-          <t>-0.45</t>
-        </is>
-      </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>0.001</t>
-        </is>
-      </c>
-      <c r="AA41" t="inlineStr"/>
-      <c r="AB41" t="inlineStr"/>
-      <c r="AC41" t="inlineStr">
-        <is>
-          <t>1일</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>07-17</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>@두산</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>W 6:4</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>0.286</t>
-        </is>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>0.750</t>
-        </is>
-      </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>2.500</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="X42" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="Y42" t="inlineStr">
-        <is>
-          <t>-1.91</t>
-        </is>
-      </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>-0.081</t>
-        </is>
-      </c>
-      <c r="AA42" t="inlineStr"/>
-      <c r="AB42" t="inlineStr"/>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>4일</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>08-03</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>@키움</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>W 7:1</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>0.285</t>
-        </is>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>0.250</t>
-        </is>
-      </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>0.500</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="X43" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="Y43" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>0.003</t>
-        </is>
-      </c>
-      <c r="AA43" t="inlineStr"/>
-      <c r="AB43" t="inlineStr"/>
-      <c r="AC43" t="inlineStr">
-        <is>
-          <t>7+일</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>08-10</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>한화</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>W 5:4</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>0.282</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>0.500</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>0.500</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="X44" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="Y44" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>0.034</t>
-        </is>
-      </c>
-      <c r="AA44" t="inlineStr"/>
-      <c r="AB44" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>08-11</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>한화</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>L 4:6</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>0.285</t>
-        </is>
-      </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>0.400</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>0.800</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="X45" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="Y45" t="inlineStr">
-        <is>
-          <t>-0.79</t>
-        </is>
-      </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>-0.056</t>
-        </is>
-      </c>
-      <c r="AA45" t="inlineStr"/>
-      <c r="AB45" t="inlineStr"/>
-      <c r="AC45" t="inlineStr">
-        <is>
-          <t>1일</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>08-16</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>삼성</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>W 9:1</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>0.400</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>0.400</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="X46" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="Y46" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>0.001</t>
-        </is>
-      </c>
-      <c r="AA46" t="inlineStr"/>
-      <c r="AB46" t="inlineStr"/>
-      <c r="AC46" t="inlineStr">
-        <is>
-          <t>5일</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>08-21</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>키움</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>L 1:8</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>0.289</t>
-        </is>
-      </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>0.556</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>1.931</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>5.74</t>
-        </is>
-      </c>
-      <c r="X47" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="Y47" t="inlineStr">
-        <is>
-          <t>-3.19</t>
-        </is>
-      </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>-0.040</t>
-        </is>
-      </c>
-      <c r="AA47" t="inlineStr"/>
-      <c r="AB47" t="inlineStr"/>
-      <c r="AC47" t="inlineStr">
-        <is>
-          <t>5일</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>08-23</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>롯데</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>D 3:3</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>0.291</t>
-        </is>
-      </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>0.333</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>0.667</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="X48" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="Y48" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>0.074</t>
-        </is>
-      </c>
-      <c r="AA48" t="inlineStr"/>
-      <c r="AB48" t="inlineStr"/>
-      <c r="AC48" t="inlineStr">
-        <is>
-          <t>2일</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>08-24</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>@LG</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>L 8:12</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>0.293</t>
-        </is>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>0.400</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>0.844</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>5.66</t>
-        </is>
-      </c>
-      <c r="X49" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="Y49" t="inlineStr">
-        <is>
-          <t>-4.17</t>
-        </is>
-      </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>-0.041</t>
-        </is>
-      </c>
-      <c r="AA49" t="inlineStr"/>
-      <c r="AB49" t="inlineStr"/>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>1일</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>08-31</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>@한화</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>W 6:1</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>0.292</t>
-        </is>
-      </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>0.250</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>1.250</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="X50" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="Y50" t="inlineStr">
-        <is>
-          <t>-0.45</t>
-        </is>
-      </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>0.003</t>
-        </is>
-      </c>
-      <c r="AA50" t="inlineStr"/>
-      <c r="AB50" t="inlineStr"/>
-      <c r="AC50" t="inlineStr">
-        <is>
-          <t>7일</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>09-03</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>LG</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>L 0:5</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>0.288</t>
-        </is>
-      </c>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="X51" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="Y51" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>0.002</t>
-        </is>
-      </c>
-      <c r="AA51" t="inlineStr"/>
-      <c r="AB51" t="inlineStr"/>
-      <c r="AC51" t="inlineStr">
-        <is>
-          <t>3일</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>09-11</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>@삼성</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>L 8:11</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>0.289</t>
-        </is>
-      </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>0.429</t>
-        </is>
-      </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>1.429</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="X52" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="Y52" t="inlineStr">
-        <is>
-          <t>-0.33</t>
-        </is>
-      </c>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>-0.012</t>
-        </is>
-      </c>
-      <c r="AA52" t="inlineStr"/>
-      <c r="AB52" t="inlineStr"/>
-      <c r="AC52" t="inlineStr">
-        <is>
-          <t>7+일</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>09-24</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>SK</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>W 7:3</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>0.288</t>
-        </is>
-      </c>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>0.250</t>
-        </is>
-      </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>0.750</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="X53" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="Y53" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>0.014</t>
-        </is>
-      </c>
       <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="inlineStr"/>
       <c r="AC53" t="inlineStr">
@@ -26834,6 +19397,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>